--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_04_25.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_04_25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B506B8-889F-41C8-86EA-DC8917A062B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D093A758-46CC-445E-9EC4-B39BD2F0B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
@@ -3334,7 +3334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3596,6 +3596,56 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3620,38 +3670,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3677,29 +3718,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3713,67 +3763,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -3803,81 +3798,6 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17823,7 +17743,7 @@
   </sheetPr>
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -18014,10 +17934,10 @@
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R7" s="120" t="s">
+      <c r="R7" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="120"/>
+      <c r="S7" s="142"/>
       <c r="T7" s="5">
         <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
         <v>-1</v>
@@ -18038,10 +17958,10 @@
       </c>
     </row>
     <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="L11" s="43" t="s">
@@ -18090,12 +18010,12 @@
       <c r="AY11" s="74"/>
     </row>
     <row r="12" spans="3:51" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="J12" s="57" t="s">
@@ -18104,7 +18024,7 @@
       <c r="K12" s="38">
         <v>270</v>
       </c>
-      <c r="L12" s="156" t="s">
+      <c r="L12" s="178" t="s">
         <v>71</v>
       </c>
       <c r="M12" s="38">
@@ -18285,7 +18205,7 @@
         <f t="shared" ref="K13" si="1">PI()*K12/180</f>
         <v>4.7123889803846897</v>
       </c>
-      <c r="L13" s="157"/>
+      <c r="L13" s="179"/>
       <c r="M13" s="64">
         <f>PI()*M12/180</f>
         <v>0</v>
@@ -19540,10 +19460,10 @@
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R7" s="120" t="s">
+      <c r="R7" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="120"/>
+      <c r="S7" s="142"/>
       <c r="T7" s="5">
         <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
         <v>9.9999999999999911</v>
@@ -19565,10 +19485,10 @@
       </c>
     </row>
     <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="L11" s="43" t="s">
@@ -19617,12 +19537,12 @@
       <c r="AY11" s="74"/>
     </row>
     <row r="12" spans="3:51" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="J12" s="57" t="s">
@@ -19631,7 +19551,7 @@
       <c r="K12" s="38">
         <v>210</v>
       </c>
-      <c r="L12" s="156" t="s">
+      <c r="L12" s="178" t="s">
         <v>71</v>
       </c>
       <c r="M12" s="38">
@@ -19812,7 +19732,7 @@
         <f t="shared" ref="K13" si="1">PI()*K12/180</f>
         <v>3.6651914291880923</v>
       </c>
-      <c r="L13" s="157"/>
+      <c r="L13" s="179"/>
       <c r="M13" s="64">
         <f>PI()*M12/180</f>
         <v>0</v>
@@ -20621,8 +20541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7909C101-0721-4B41-AB3B-88F5CF5B361C}">
   <dimension ref="C1:AK42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20651,10 +20571,10 @@
         <v>252</v>
       </c>
       <c r="D2" s="44"/>
-      <c r="L2" s="166" t="s">
+      <c r="L2" s="125" t="s">
         <v>269</v>
       </c>
-      <c r="M2" s="167" t="s">
+      <c r="M2" s="126" t="s">
         <v>272</v>
       </c>
       <c r="N2" s="111"/>
@@ -20667,8 +20587,8 @@
         <v>274</v>
       </c>
       <c r="T3" s="85"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.35">
       <c r="L4" s="115" t="s">
@@ -20726,49 +20646,49 @@
       <c r="K21" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="L21" s="177">
+      <c r="L21" s="134">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="4:35" x14ac:dyDescent="0.35">
-      <c r="D22" s="168"/>
-      <c r="E22" s="169" t="str">
+      <c r="D22" s="127"/>
+      <c r="E22" s="128" t="str">
         <f>E21</f>
         <v xml:space="preserve">α = </v>
       </c>
-      <c r="F22" s="170">
+      <c r="F22" s="129">
         <f>IF(G21=G22,F21,F21*180/PI())</f>
         <v>30</v>
       </c>
-      <c r="G22" s="171" t="str">
+      <c r="G22" s="127" t="str">
         <f>L3</f>
         <v>°</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="L22" s="179">
+      <c r="L22" s="136">
         <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="4:35" x14ac:dyDescent="0.35">
-      <c r="D23" s="168"/>
-      <c r="E23" s="169" t="str">
+      <c r="D23" s="127"/>
+      <c r="E23" s="128" t="str">
         <f>E21</f>
         <v xml:space="preserve">α = </v>
       </c>
-      <c r="F23" s="170">
+      <c r="F23" s="129">
         <f>IF(G21=G23,F21,F21*PI()/180)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="G23" s="171" t="str">
+      <c r="G23" s="127" t="str">
         <f>L4</f>
         <v>rad</v>
       </c>
-      <c r="K23" s="173" t="s">
+      <c r="K23" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L23" s="178">
+      <c r="L23" s="135">
         <f>DEGREES(ATAN(L21))</f>
         <v>30.963756532073521</v>
       </c>
@@ -20796,10 +20716,10 @@
       <c r="G24" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="K24" s="173" t="s">
+      <c r="K24" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L24" s="178">
+      <c r="L24" s="135">
         <f>DEGREES(ATAN(L22))</f>
         <v>11.309932474020215</v>
       </c>
@@ -20879,7 +20799,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="4:35" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="D30" s="173" t="s">
+      <c r="D30" s="5" t="s">
         <v>297</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -20919,13 +20839,13 @@
         <f>IF(G31&gt;0,"Gleiten","Haftet")</f>
         <v>Haftet</v>
       </c>
-      <c r="K31" s="176" t="s">
+      <c r="K31" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="L31" s="176" t="s">
+      <c r="L31" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="M31" s="176" t="s">
+      <c r="M31" s="133" t="s">
         <v>279</v>
       </c>
       <c r="O31" t="str">
@@ -20940,7 +20860,7 @@
       </c>
     </row>
     <row r="32" spans="4:35" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="173" t="s">
+      <c r="D32" s="5" t="s">
         <v>300</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -20957,19 +20877,19 @@
         <f>H31</f>
         <v>kN</v>
       </c>
-      <c r="K32" s="175" t="s">
+      <c r="K32" s="132" t="s">
         <v>283</v>
       </c>
-      <c r="L32" s="175" t="s">
+      <c r="L32" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="M32" s="175" t="s">
+      <c r="M32" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="O32" s="180" t="s">
+      <c r="O32" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="P32" s="180" t="s">
+      <c r="P32" s="137" t="s">
         <v>309</v>
       </c>
       <c r="Q32" s="4">
@@ -21066,19 +20986,19 @@
         <f>H32</f>
         <v>kN</v>
       </c>
-      <c r="K33" s="175" t="s">
+      <c r="K33" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="L33" s="175" t="s">
+      <c r="L33" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="M33" s="175" t="s">
+      <c r="M33" s="132" t="s">
         <v>288</v>
       </c>
-      <c r="O33" s="180" t="s">
+      <c r="O33" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="P33" s="180" t="s">
+      <c r="P33" s="137" t="s">
         <v>310</v>
       </c>
       <c r="Q33" s="5">
@@ -21159,13 +21079,13 @@
       </c>
     </row>
     <row r="34" spans="4:37" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K34" s="175" t="s">
+      <c r="K34" s="132" t="s">
         <v>289</v>
       </c>
-      <c r="L34" s="175" t="s">
+      <c r="L34" s="132" t="s">
         <v>288</v>
       </c>
-      <c r="M34" s="175" t="s">
+      <c r="M34" s="132" t="s">
         <v>290</v>
       </c>
       <c r="O34" s="19" t="s">
@@ -21253,13 +21173,13 @@
       </c>
     </row>
     <row r="35" spans="4:37" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K35" s="175" t="s">
+      <c r="K35" s="132" t="s">
         <v>291</v>
       </c>
-      <c r="L35" s="175" t="s">
+      <c r="L35" s="132" t="s">
         <v>292</v>
       </c>
-      <c r="M35" s="175" t="s">
+      <c r="M35" s="132" t="s">
         <v>293</v>
       </c>
       <c r="O35" s="19" t="s">
@@ -21347,13 +21267,13 @@
       </c>
     </row>
     <row r="36" spans="4:37" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K36" s="175" t="s">
+      <c r="K36" s="132" t="s">
         <v>294</v>
       </c>
-      <c r="L36" s="175" t="s">
+      <c r="L36" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="M36" s="175" t="s">
+      <c r="M36" s="132" t="s">
         <v>295</v>
       </c>
       <c r="O36" s="19" t="s">
@@ -21611,10 +21531,10 @@
       </c>
     </row>
     <row r="39" spans="4:37" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="O39" s="181" t="s">
+      <c r="O39" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="P39" s="181"/>
+      <c r="P39" s="19"/>
       <c r="Q39" s="5">
         <f>IF(Q38&gt;0,Q38/$F$20,0)</f>
         <v>0</v>
@@ -21693,7 +21613,7 @@
       </c>
     </row>
     <row r="40" spans="4:37" x14ac:dyDescent="0.35">
-      <c r="O40" s="181" t="s">
+      <c r="O40" s="19" t="s">
         <v>311</v>
       </c>
       <c r="P40" s="5"/>
@@ -21765,11 +21685,11 @@
         <f t="shared" si="19"/>
         <v>9.3202663324672432</v>
       </c>
-      <c r="AH40" s="182">
+      <c r="AH40" s="138">
         <f t="shared" si="19"/>
         <v>9.6016704210091195</v>
       </c>
-      <c r="AI40" s="182">
+      <c r="AI40" s="138">
         <f t="shared" si="19"/>
         <v>9.81</v>
       </c>
@@ -21885,7 +21805,7 @@
       <c r="AC2" s="92"/>
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="R3" s="172" t="s">
+      <c r="R3" s="130" t="s">
         <v>249</v>
       </c>
       <c r="S3" s="5" t="s">
@@ -21920,7 +21840,7 @@
       </c>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="R4" s="172" t="s">
+      <c r="R4" s="130" t="s">
         <v>250</v>
       </c>
       <c r="S4" s="5" t="s">
@@ -21955,7 +21875,7 @@
       </c>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="R5" s="172" t="s">
+      <c r="R5" s="130" t="s">
         <v>251</v>
       </c>
       <c r="S5" s="5" t="s">
@@ -21983,7 +21903,7 @@
       </c>
     </row>
     <row r="7" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="R7" s="173" t="s">
+      <c r="R7" s="5" t="s">
         <v>71</v>
       </c>
       <c r="S7" s="5"/>
@@ -21995,102 +21915,102 @@
       <c r="T8" s="5"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="75"/>
-      <c r="I12" s="159" t="s">
+      <c r="I12" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159" t="s">
+      <c r="J12" s="139"/>
+      <c r="K12" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159" t="s">
+      <c r="L12" s="139"/>
+      <c r="M12" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="160" t="s">
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="140" t="s">
         <v>243</v>
       </c>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160" t="s">
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="161" t="s">
+      <c r="F13" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="161" t="s">
+      <c r="G13" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="H13" s="161" t="s">
+      <c r="H13" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="I13" s="161" t="s">
+      <c r="I13" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="J13" s="161" t="s">
+      <c r="J13" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="161" t="s">
+      <c r="K13" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="L13" s="161" t="s">
+      <c r="L13" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="161" t="s">
+      <c r="M13" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="N13" s="161" t="s">
+      <c r="N13" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="O13" s="161" t="s">
+      <c r="O13" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="P13" s="161" t="s">
+      <c r="P13" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="Q13" s="161" t="s">
+      <c r="Q13" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="R13" s="161" t="s">
+      <c r="R13" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="S13" s="161" t="s">
+      <c r="S13" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="T13" s="161" t="s">
+      <c r="T13" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="U13" s="161" t="s">
+      <c r="U13" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="V13" s="161" t="s">
+      <c r="V13" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="W13" s="161" t="s">
+      <c r="W13" s="120" t="s">
         <v>242</v>
       </c>
     </row>
@@ -22110,7 +22030,7 @@
       <c r="G14" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="164"/>
+      <c r="H14" s="123"/>
       <c r="I14" s="5" t="str">
         <f>IF(AND(E14=$S$5,G14=$S$5),$T$3,IF(AND(E14=$S$5,G14=$S$4),$T$4,IF(AND(E14=$S$5,G14=$S$3),$T$5,$T$6)))</f>
         <v>Kartesisch</v>
@@ -22119,23 +22039,23 @@
         <f>IF(I14=$T$5,F14*PI()/180,IF(I14=$T$4,F14,""))</f>
         <v/>
       </c>
-      <c r="K14" s="162">
+      <c r="K14" s="121">
         <f>IF(I14=$T$3,D14,D14*COS(J14))</f>
         <v>5</v>
       </c>
-      <c r="L14" s="162">
+      <c r="L14" s="121">
         <f>IF(I14=$T$3,F14,D14*SIN(J14))</f>
         <v>5</v>
       </c>
-      <c r="M14" s="163">
+      <c r="M14" s="122">
         <f>SQRT(K14^2 + L14^2)</f>
         <v>7.0710678118654755</v>
       </c>
-      <c r="N14" s="163">
+      <c r="N14" s="122">
         <f>DEGREES(ATAN2(K14,L14))</f>
         <v>45</v>
       </c>
-      <c r="O14" s="163">
+      <c r="O14" s="122">
         <f>ATAN2(K14,L14)</f>
         <v>0.78539816339744828</v>
       </c>
@@ -22153,10 +22073,10 @@
         <f>L14</f>
         <v>5</v>
       </c>
-      <c r="T14" s="174"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
@@ -22174,7 +22094,7 @@
       <c r="G15" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="165" t="s">
+      <c r="H15" s="124" t="s">
         <v>249</v>
       </c>
       <c r="I15" s="5" t="str">
@@ -22185,40 +22105,40 @@
         <f t="shared" ref="J15:J20" si="1">IF(I15=$T$5,F15*PI()/180,IF(I15=$T$4,F15,""))</f>
         <v/>
       </c>
-      <c r="K15" s="162">
+      <c r="K15" s="121">
         <f t="shared" ref="K15:K20" si="2">IF(I15=$T$3,D15,D15*COS(J15))</f>
         <v>10</v>
       </c>
-      <c r="L15" s="162">
+      <c r="L15" s="121">
         <f t="shared" ref="L15:L20" si="3">IF(I15=$T$3,F15,D15*SIN(J15))</f>
         <v>-12</v>
       </c>
-      <c r="M15" s="163">
+      <c r="M15" s="122">
         <f t="shared" ref="M15:M20" si="4">SQRT(K15^2 + L15^2)</f>
         <v>15.620499351813308</v>
       </c>
-      <c r="N15" s="163">
+      <c r="N15" s="122">
         <f t="shared" ref="N15:N20" si="5">DEGREES(ATAN2(K15,L15))</f>
         <v>-50.19442890773481</v>
       </c>
-      <c r="O15" s="163">
+      <c r="O15" s="122">
         <f t="shared" ref="O15:O20" si="6">ATAN2(K15,L15)</f>
         <v>-0.87605805059819342</v>
       </c>
       <c r="P15" s="93">
-        <f>IF(H15=$R$6,0,IF(H15=$R$3,Q14,0))</f>
+        <f t="shared" ref="P15:P20" si="7">IF(H15=$R$6,0,IF(H15=$R$3,Q14,0))</f>
         <v>5</v>
       </c>
       <c r="Q15" s="93">
-        <f>IF(H15=$R$6,0,IF(H15=$R$3,K15+Q14,K15))</f>
+        <f t="shared" ref="Q15:Q20" si="8">IF(H15=$R$6,0,IF(H15=$R$3,K15+Q14,K15))</f>
         <v>15</v>
       </c>
       <c r="R15" s="93">
-        <f>IF(H15=$R$6,0,IF(H15=$R$3,S14,0))</f>
+        <f t="shared" ref="R15:R20" si="9">IF(H15=$R$6,0,IF(H15=$R$3,S14,0))</f>
         <v>5</v>
       </c>
       <c r="S15" s="93">
-        <f>IF(H15=$R$6,0,IF(H15=$R$3,S14+L15,L15))</f>
+        <f t="shared" ref="S15:S20" si="10">IF(H15=$R$6,0,IF(H15=$R$3,S14+L15,L15))</f>
         <v>-7</v>
       </c>
       <c r="T15" s="93">
@@ -22252,7 +22172,7 @@
       <c r="G16" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="165" t="s">
+      <c r="H16" s="124" t="s">
         <v>249</v>
       </c>
       <c r="I16" s="5" t="str">
@@ -22263,40 +22183,40 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K16" s="162">
+      <c r="K16" s="121">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="L16" s="162">
+      <c r="L16" s="121">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M16" s="163">
+      <c r="M16" s="122">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="N16" s="163">
+      <c r="N16" s="122">
         <f t="shared" si="5"/>
         <v>118.07248693585296</v>
       </c>
-      <c r="O16" s="163">
+      <c r="O16" s="122">
         <f t="shared" si="6"/>
         <v>2.060753653048625</v>
       </c>
       <c r="P16" s="93">
-        <f>IF(H16=$R$6,0,IF(H16=$R$3,Q15,0))</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="Q16" s="93">
-        <f>IF(H16=$R$6,0,IF(H16=$R$3,K16+Q15,K16))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R16" s="93">
-        <f>IF(H16=$R$6,0,IF(H16=$R$3,S15,0))</f>
+        <f t="shared" si="9"/>
         <v>-7</v>
       </c>
       <c r="S16" s="93">
-        <f>IF(H16=$R$6,0,IF(H16=$R$3,S15+L16,L16))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="T16" s="93">
@@ -22306,11 +22226,11 @@
         <v>0</v>
       </c>
       <c r="V16" s="93">
-        <f t="shared" ref="V16:V20" si="7">IF(P16&lt;&gt;0,Q16,0)</f>
+        <f t="shared" ref="V16:V20" si="11">IF(P16&lt;&gt;0,Q16,0)</f>
         <v>7</v>
       </c>
       <c r="W16" s="93">
-        <f t="shared" ref="W16:W20" si="8">IF(R16&lt;&gt;0,S16,0)</f>
+        <f t="shared" ref="W16:W20" si="12">IF(R16&lt;&gt;0,S16,0)</f>
         <v>8</v>
       </c>
     </row>
@@ -22330,7 +22250,7 @@
       <c r="G17" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="165" t="s">
+      <c r="H17" s="124" t="s">
         <v>249</v>
       </c>
       <c r="I17" s="5" t="str">
@@ -22341,40 +22261,40 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K17" s="162">
+      <c r="K17" s="121">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="L17" s="162">
+      <c r="L17" s="121">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
-      <c r="M17" s="163">
+      <c r="M17" s="122">
         <f t="shared" si="4"/>
         <v>22.360679774997898</v>
       </c>
-      <c r="N17" s="163">
+      <c r="N17" s="122">
         <f t="shared" si="5"/>
         <v>-116.56505117707799</v>
       </c>
-      <c r="O17" s="163">
+      <c r="O17" s="122">
         <f t="shared" si="6"/>
         <v>-2.0344439357957027</v>
       </c>
       <c r="P17" s="93">
-        <f>IF(H17=$R$6,0,IF(H17=$R$3,Q16,0))</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q17" s="93">
-        <f>IF(H17=$R$6,0,IF(H17=$R$3,K17+Q16,K17))</f>
+        <f t="shared" si="8"/>
         <v>-3</v>
       </c>
       <c r="R17" s="93">
-        <f>IF(H17=$R$6,0,IF(H17=$R$3,S16,0))</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="S17" s="93">
-        <f>IF(H17=$R$6,0,IF(H17=$R$3,S16+L17,L17))</f>
+        <f t="shared" si="10"/>
         <v>-12</v>
       </c>
       <c r="T17" s="93">
@@ -22384,11 +22304,11 @@
         <v>0</v>
       </c>
       <c r="V17" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="W17" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
     </row>
@@ -22408,7 +22328,7 @@
       <c r="G18" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="165" t="s">
+      <c r="H18" s="124" t="s">
         <v>249</v>
       </c>
       <c r="I18" s="5" t="str">
@@ -22419,40 +22339,40 @@
         <f t="shared" si="1"/>
         <v>1.7453292519943295</v>
       </c>
-      <c r="K18" s="162">
+      <c r="K18" s="121">
         <f t="shared" si="2"/>
         <v>-3.4729635533386061</v>
       </c>
-      <c r="L18" s="162">
+      <c r="L18" s="121">
         <f t="shared" si="3"/>
         <v>19.696155060244159</v>
       </c>
-      <c r="M18" s="163">
+      <c r="M18" s="122">
         <f t="shared" si="4"/>
         <v>19.999999999999996</v>
       </c>
-      <c r="N18" s="163">
+      <c r="N18" s="122">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="O18" s="163">
+      <c r="O18" s="122">
         <f t="shared" si="6"/>
         <v>1.7453292519943295</v>
       </c>
       <c r="P18" s="93">
-        <f>IF(H18=$R$6,0,IF(H18=$R$3,Q17,0))</f>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="Q18" s="93">
-        <f>IF(H18=$R$6,0,IF(H18=$R$3,K18+Q17,K18))</f>
+        <f t="shared" si="8"/>
         <v>-6.4729635533386061</v>
       </c>
       <c r="R18" s="93">
-        <f>IF(H18=$R$6,0,IF(H18=$R$3,S17,0))</f>
+        <f t="shared" si="9"/>
         <v>-12</v>
       </c>
       <c r="S18" s="93">
-        <f>IF(H18=$R$6,0,IF(H18=$R$3,S17+L18,L18))</f>
+        <f t="shared" si="10"/>
         <v>7.6961550602441591</v>
       </c>
       <c r="T18" s="93">
@@ -22462,11 +22382,11 @@
         <v>0</v>
       </c>
       <c r="V18" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-6.4729635533386061</v>
       </c>
       <c r="W18" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.6961550602441591</v>
       </c>
     </row>
@@ -22486,7 +22406,7 @@
       <c r="G19" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="165" t="s">
+      <c r="H19" s="124" t="s">
         <v>275</v>
       </c>
       <c r="I19" s="5" t="str">
@@ -22497,40 +22417,40 @@
         <f t="shared" si="1"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="K19" s="162">
+      <c r="K19" s="121">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="L19" s="162">
+      <c r="L19" s="121">
         <f t="shared" si="3"/>
         <v>2.45029690981724E-15</v>
       </c>
-      <c r="M19" s="163">
+      <c r="M19" s="122">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="N19" s="163">
+      <c r="N19" s="122">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="O19" s="163">
+      <c r="O19" s="122">
         <f t="shared" si="6"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="P19" s="93">
-        <f>IF(H19=$R$6,0,IF(H19=$R$3,Q18,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q19" s="93">
-        <f>IF(H19=$R$6,0,IF(H19=$R$3,K19+Q18,K19))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="93">
-        <f>IF(H19=$R$6,0,IF(H19=$R$3,S18,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S19" s="93">
-        <f>IF(H19=$R$6,0,IF(H19=$R$3,S18+L19,L19))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T19" s="93">
@@ -22540,11 +22460,11 @@
         <v>0</v>
       </c>
       <c r="V19" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W19" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -22564,7 +22484,7 @@
       <c r="G20" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="165" t="s">
+      <c r="H20" s="124" t="s">
         <v>275</v>
       </c>
       <c r="I20" s="5" t="str">
@@ -22575,40 +22495,40 @@
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="K20" s="162">
+      <c r="K20" s="121">
         <f t="shared" si="2"/>
         <v>19.53175251456047</v>
       </c>
-      <c r="L20" s="162">
+      <c r="L20" s="121">
         <f t="shared" si="3"/>
         <v>4.3023997617563108</v>
       </c>
-      <c r="M20" s="163">
+      <c r="M20" s="122">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="N20" s="163">
+      <c r="N20" s="122">
         <f t="shared" si="5"/>
         <v>12.422566835035086</v>
       </c>
-      <c r="O20" s="163">
+      <c r="O20" s="122">
         <f t="shared" si="6"/>
         <v>0.21681469282041352</v>
       </c>
       <c r="P20" s="93">
-        <f>IF(H20=$R$6,0,IF(H20=$R$3,Q19,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q20" s="93">
-        <f>IF(H20=$R$6,0,IF(H20=$R$3,K20+Q19,K20))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R20" s="93">
-        <f>IF(H20=$R$6,0,IF(H20=$R$3,S19,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S20" s="93">
-        <f>IF(H20=$R$6,0,IF(H20=$R$3,S19+L20,L20))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T20" s="93">
@@ -22618,22 +22538,22 @@
         <v>0</v>
       </c>
       <c r="V20" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W20" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="T12:W12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <dataValidations count="2">
@@ -22682,7 +22602,7 @@
       </c>
       <c r="J2" s="111">
         <f ca="1">NOW()</f>
-        <v>45772.73313414352</v>
+        <v>45781.768148958334</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.6">
@@ -25496,10 +25416,10 @@
     </row>
     <row r="4" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="22"/>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="124"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="23">
         <v>2</v>
       </c>
@@ -25547,10 +25467,10 @@
     </row>
     <row r="5" spans="2:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="22"/>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="126"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="25">
         <v>10</v>
       </c>
@@ -25561,10 +25481,10 @@
     <row r="6" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="122"/>
+      <c r="D8" s="144"/>
       <c r="E8" s="4">
         <v>1</v>
       </c>
@@ -25592,10 +25512,10 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="119"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="4">
         <v>0</v>
       </c>
@@ -25689,10 +25609,10 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="120"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="5">
         <f t="shared" ref="E10:Y10" si="3">$E$4*E9+$E$5</f>
         <v>10</v>
@@ -25787,10 +25707,10 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="120"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="5">
         <f t="shared" ref="E11:Y11" si="5">$E$4/2 * E9^2 + $E$5*E9</f>
         <v>0</v>
@@ -25950,61 +25870,61 @@
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="138" t="str">
+      <c r="C6" s="157" t="str">
         <f>$O$8</f>
         <v>Anfangs-Geschwindigkeit</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="142" t="str">
+      <c r="D6" s="158"/>
+      <c r="E6" s="161" t="str">
         <f>$O$9</f>
         <v>Geschwindigkeit</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="142" t="str">
+      <c r="F6" s="158"/>
+      <c r="G6" s="161" t="str">
         <f>$O$10</f>
         <v>Strecke</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="142" t="str">
+      <c r="H6" s="158"/>
+      <c r="I6" s="161" t="str">
         <f>$O$11</f>
         <v>Zeit</v>
       </c>
-      <c r="J6" s="139"/>
-      <c r="K6" s="142" t="str">
+      <c r="J6" s="158"/>
+      <c r="K6" s="161" t="str">
         <f>$O$12</f>
         <v>Beschleunigung</v>
       </c>
-      <c r="L6" s="143"/>
+      <c r="L6" s="162"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="140" t="str">
+      <c r="C7" s="159" t="str">
         <f>$P$8</f>
         <v>v0 [m/s]</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="144" t="str">
+      <c r="D7" s="160"/>
+      <c r="E7" s="163" t="str">
         <f>$P$9</f>
         <v>v [m/s]</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="144" t="str">
+      <c r="F7" s="160"/>
+      <c r="G7" s="163" t="str">
         <f>$P$10</f>
         <v>s [m]</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="144" t="str">
+      <c r="H7" s="160"/>
+      <c r="I7" s="163" t="str">
         <f>$P$11</f>
         <v>t [s]</v>
       </c>
-      <c r="J7" s="141"/>
-      <c r="K7" s="144" t="str">
+      <c r="J7" s="160"/>
+      <c r="K7" s="163" t="str">
         <f>$P$12</f>
         <v>a [m/s2]</v>
       </c>
-      <c r="L7" s="145"/>
+      <c r="L7" s="164"/>
       <c r="O7" s="80"/>
       <c r="S7" s="63"/>
     </row>
@@ -26029,18 +25949,18 @@
         <f xml:space="preserve"> G8/I8 + K8*I8/2</f>
         <v>24</v>
       </c>
-      <c r="G8" s="132">
+      <c r="G8" s="165">
         <v>119</v>
       </c>
-      <c r="H8" s="133"/>
-      <c r="I8" s="132">
+      <c r="H8" s="170"/>
+      <c r="I8" s="165">
         <v>7</v>
       </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="132">
+      <c r="J8" s="170"/>
+      <c r="K8" s="165">
         <v>2</v>
       </c>
-      <c r="L8" s="137"/>
+      <c r="L8" s="166"/>
       <c r="N8" s="86" t="s">
         <v>104</v>
       </c>
@@ -26071,10 +25991,10 @@
         <f>E9-K9*I9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="129">
+      <c r="E9" s="167">
         <v>24</v>
       </c>
-      <c r="F9" s="130"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="31" t="s">
         <v>83</v>
       </c>
@@ -26082,14 +26002,14 @@
         <f>E9*I9 - K9*I9^2/2</f>
         <v>119</v>
       </c>
-      <c r="I9" s="129">
+      <c r="I9" s="167">
         <v>7</v>
       </c>
-      <c r="J9" s="130"/>
-      <c r="K9" s="129">
+      <c r="J9" s="171"/>
+      <c r="K9" s="167">
         <v>2</v>
       </c>
-      <c r="L9" s="135"/>
+      <c r="L9" s="168"/>
       <c r="N9" s="86" t="s">
         <v>104</v>
       </c>
@@ -26120,14 +26040,14 @@
         <f>SQRT(E10^2 - 2*K10*G10)</f>
         <v>10</v>
       </c>
-      <c r="E10" s="129">
+      <c r="E10" s="167">
         <v>24</v>
       </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="129">
+      <c r="F10" s="171"/>
+      <c r="G10" s="167">
         <v>119</v>
       </c>
-      <c r="H10" s="130"/>
+      <c r="H10" s="171"/>
       <c r="I10" s="31" t="s">
         <v>84</v>
       </c>
@@ -26135,10 +26055,10 @@
         <f>(E10 - SQRT(E10^2 - 2*K10*G10))/K10</f>
         <v>7</v>
       </c>
-      <c r="K10" s="129">
+      <c r="K10" s="167">
         <v>2</v>
       </c>
-      <c r="L10" s="135"/>
+      <c r="L10" s="168"/>
       <c r="N10" s="86" t="s">
         <v>104</v>
       </c>
@@ -26169,18 +26089,18 @@
         <f>2*G11/I11 - E11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="129">
+      <c r="E11" s="167">
         <v>24</v>
       </c>
-      <c r="F11" s="130"/>
-      <c r="G11" s="129">
+      <c r="F11" s="171"/>
+      <c r="G11" s="167">
         <v>119</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="129">
+      <c r="H11" s="171"/>
+      <c r="I11" s="167">
         <v>7</v>
       </c>
-      <c r="J11" s="130"/>
+      <c r="J11" s="171"/>
       <c r="K11" s="31" t="s">
         <v>85</v>
       </c>
@@ -26211,10 +26131,10 @@
       <c r="B12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="173">
         <v>10</v>
       </c>
-      <c r="D12" s="130"/>
+      <c r="D12" s="171"/>
       <c r="E12" s="32" t="s">
         <v>60</v>
       </c>
@@ -26229,14 +26149,14 @@
         <f>K12/2 * I12^2 + C12*I12</f>
         <v>119</v>
       </c>
-      <c r="I12" s="129">
+      <c r="I12" s="167">
         <v>7</v>
       </c>
-      <c r="J12" s="130"/>
-      <c r="K12" s="129">
+      <c r="J12" s="171"/>
+      <c r="K12" s="167">
         <v>2</v>
       </c>
-      <c r="L12" s="135"/>
+      <c r="L12" s="168"/>
       <c r="N12" s="86" t="s">
         <v>105</v>
       </c>
@@ -26263,10 +26183,10 @@
       <c r="B13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="173">
         <v>10</v>
       </c>
-      <c r="D13" s="130"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="31" t="s">
         <v>88</v>
       </c>
@@ -26274,10 +26194,10 @@
         <f>SQRT(C13^2 + 2*K13*G13)</f>
         <v>24</v>
       </c>
-      <c r="G13" s="129">
+      <c r="G13" s="167">
         <v>119</v>
       </c>
-      <c r="H13" s="130"/>
+      <c r="H13" s="171"/>
       <c r="I13" s="37" t="s">
         <v>62</v>
       </c>
@@ -26285,10 +26205,10 @@
         <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
         <v>7</v>
       </c>
-      <c r="K13" s="127">
+      <c r="K13" s="169">
         <v>2</v>
       </c>
-      <c r="L13" s="135"/>
+      <c r="L13" s="168"/>
       <c r="O13" s="80" t="s">
         <v>97</v>
       </c>
@@ -26303,10 +26223,10 @@
       <c r="B14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="173">
         <v>10</v>
       </c>
-      <c r="D14" s="130"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="31" t="s">
         <v>89</v>
       </c>
@@ -26314,14 +26234,14 @@
         <f>2*G14/I14 - C14</f>
         <v>24</v>
       </c>
-      <c r="G14" s="129">
+      <c r="G14" s="167">
         <v>119</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="129">
+      <c r="H14" s="171"/>
+      <c r="I14" s="167">
         <v>7</v>
       </c>
-      <c r="J14" s="136"/>
+      <c r="J14" s="172"/>
       <c r="K14" s="87" t="s">
         <v>61</v>
       </c>
@@ -26343,14 +26263,14 @@
       <c r="B15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="173">
         <v>10</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="129">
+      <c r="D15" s="171"/>
+      <c r="E15" s="167">
         <v>24</v>
       </c>
-      <c r="F15" s="130"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="31" t="s">
         <v>90</v>
       </c>
@@ -26365,10 +26285,10 @@
         <f>(E15-C15)/K15</f>
         <v>7</v>
       </c>
-      <c r="K15" s="129">
+      <c r="K15" s="167">
         <v>2</v>
       </c>
-      <c r="L15" s="135"/>
+      <c r="L15" s="168"/>
       <c r="O15" s="80" t="s">
         <v>99</v>
       </c>
@@ -26383,14 +26303,14 @@
       <c r="B16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="173">
         <v>10</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="129">
+      <c r="D16" s="171"/>
+      <c r="E16" s="167">
         <v>24</v>
       </c>
-      <c r="F16" s="130"/>
+      <c r="F16" s="171"/>
       <c r="G16" s="31" t="s">
         <v>91</v>
       </c>
@@ -26398,10 +26318,10 @@
         <f>(C16+E16)*I16/2</f>
         <v>119</v>
       </c>
-      <c r="I16" s="129">
+      <c r="I16" s="167">
         <v>7</v>
       </c>
-      <c r="J16" s="130"/>
+      <c r="J16" s="171"/>
       <c r="K16" s="78" t="s">
         <v>58</v>
       </c>
@@ -26423,18 +26343,18 @@
       <c r="B17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="131">
+      <c r="C17" s="175">
         <v>10</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="127">
+      <c r="D17" s="174"/>
+      <c r="E17" s="169">
         <v>24</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="127">
+      <c r="F17" s="174"/>
+      <c r="G17" s="169">
         <v>119</v>
       </c>
-      <c r="H17" s="128"/>
+      <c r="H17" s="174"/>
       <c r="I17" s="83" t="s">
         <v>92</v>
       </c>
@@ -26460,71 +26380,91 @@
       <c r="B18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="146" t="str">
+      <c r="C18" s="153" t="str">
         <f>P13</f>
         <v>ω0 [rad/s]</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148" t="str">
+      <c r="D18" s="154"/>
+      <c r="E18" s="155" t="str">
         <f>P14</f>
         <v>ω [rad/s]</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148" t="str">
+      <c r="F18" s="154"/>
+      <c r="G18" s="155" t="str">
         <f>P15</f>
         <v>φ [rad]</v>
       </c>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148" t="str">
+      <c r="H18" s="154"/>
+      <c r="I18" s="155" t="str">
         <f>P16</f>
         <v>t [s]</v>
       </c>
-      <c r="J18" s="147"/>
-      <c r="K18" s="148" t="str">
+      <c r="J18" s="154"/>
+      <c r="K18" s="155" t="str">
         <f>P17</f>
         <v>α [rad/s2]</v>
       </c>
-      <c r="L18" s="149"/>
+      <c r="L18" s="156"/>
     </row>
     <row r="19" spans="1:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="150" t="str">
+      <c r="C19" s="149" t="str">
         <f>O13</f>
         <v>Anfangs-Winkelgeschwindigkeit</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152" t="str">
+      <c r="D19" s="150"/>
+      <c r="E19" s="151" t="str">
         <f>O14</f>
         <v>Winkelgeschwindigkeit</v>
       </c>
-      <c r="F19" s="151"/>
-      <c r="G19" s="152" t="str">
+      <c r="F19" s="150"/>
+      <c r="G19" s="151" t="str">
         <f>O15</f>
         <v>Winkel</v>
       </c>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152" t="str">
+      <c r="H19" s="150"/>
+      <c r="I19" s="151" t="str">
         <f>O16</f>
         <v>Zeit</v>
       </c>
-      <c r="J19" s="151"/>
-      <c r="K19" s="152" t="str">
+      <c r="J19" s="150"/>
+      <c r="K19" s="151" t="str">
         <f>O17</f>
         <v>Winkelbeschleunigung</v>
       </c>
-      <c r="L19" s="153"/>
+      <c r="L19" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K6:L6"/>
@@ -26535,36 +26475,16 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">
